--- a/public/upload/noseri/Template Noseri (2).xlsx
+++ b/public/upload/noseri/Template Noseri (2).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wisnu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D33280-629A-463B-AD6D-EDBAE6192739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3E698-0E35-49DD-A67A-7143C9540FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-495" yWindow="2400" windowWidth="19200" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Noseri" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="414">
   <si>
     <t>No</t>
   </si>
@@ -1261,49 +1261,19 @@
     <t xml:space="preserve">ZTP80AS-UPGRADE </t>
   </si>
   <si>
-    <t>THE01219A01428</t>
-  </si>
-  <si>
-    <t>THE01219A00912</t>
-  </si>
-  <si>
-    <t>THE01219A00915</t>
-  </si>
-  <si>
-    <t>THE01219A00378</t>
-  </si>
-  <si>
-    <t>THE01219A00973</t>
-  </si>
-  <si>
-    <t>THE01219A01110</t>
-  </si>
-  <si>
-    <t>THE01219A00933</t>
-  </si>
-  <si>
-    <t>THE01219A01038</t>
-  </si>
-  <si>
-    <t>THE01219A01503</t>
-  </si>
-  <si>
-    <t>THE01219A00927</t>
-  </si>
-  <si>
-    <t>THE01219A01092</t>
-  </si>
-  <si>
-    <t>THE01219A00935</t>
-  </si>
-  <si>
-    <t>THE01219A01623</t>
-  </si>
-  <si>
-    <t>THE01219A00938</t>
-  </si>
-  <si>
-    <t>THE01219A01014</t>
+    <t>MFT01204A1937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFT01204A0071 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFT01204A0987 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFT01204A0198 </t>
+  </si>
+  <si>
+    <t>MFT01204A0446</t>
   </si>
 </sst>
 </file>
@@ -1668,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1696,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>409</v>
@@ -1705,7 +1675,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>410</v>
@@ -1713,7 +1683,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>411</v>
@@ -1721,7 +1691,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>412</v>
@@ -1729,95 +1699,15 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>324</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>324</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>324</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>324</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>324</v>
-      </c>
-      <c r="C16" t="s">
-        <v>423</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="C19:C10000">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="C20:C10000">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
